--- a/FPH-Coef-ITUTINGA    -.xlsx
+++ b/FPH-Coef-ITUTINGA    -.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2278841759746226</v>
+        <v>0.2478300138866397</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.008628899433967392</v>
+        <v>-0.009412580379841521</v>
       </c>
       <c r="F2">
-        <v>2.143768304582088</v>
-      </c>
-      <c r="G2">
-        <v>0.002499150709508516</v>
+        <v>0.02072251049467075</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,16 +443,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.2278841759746226</v>
+        <v>0.2478300138866397</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.008628899433967392</v>
+        <v>-0.009412580379841521</v>
       </c>
       <c r="F3">
-        <v>2.143768304582088</v>
+        <v>0.02072251049467075</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.2464750248501276</v>
+        <v>0.2494637387804105</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.01832444414108196</v>
+        <v>-0.009787648443093495</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -486,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2464750248501276</v>
+        <v>0.2494637387804105</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01832444414108196</v>
+        <v>-0.009787648443093495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -506,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2332988401776795</v>
+        <v>0.2431874804797631</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.009982565484731608</v>
+        <v>-0.008464103370709779</v>
       </c>
       <c r="F6">
-        <v>1.165067749879546</v>
+        <v>0.1963126759704176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,16 +523,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2332988401776795</v>
+        <v>0.2431874804797631</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.009982565484731608</v>
+        <v>-0.008464103370709779</v>
       </c>
       <c r="F7">
-        <v>1.165067749879546</v>
+        <v>0.1963126759704176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -546,16 +543,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.2394598795696222</v>
+        <v>0.2417225646119521</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E8">
-        <v>-0.01306308518070294</v>
+        <v>-0.008202526480021826</v>
       </c>
       <c r="F8">
-        <v>0.4226625031504497</v>
+        <v>0.2892191823236966</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -566,16 +563,616 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.2394598795696222</v>
+        <v>0.2417225646119521</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E9">
-        <v>-0.01306308518070294</v>
+        <v>-0.008202526480021826</v>
       </c>
       <c r="F9">
-        <v>0.4226625031504497</v>
+        <v>0.2892191823236966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.2290780474790936</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.006795479750174953</v>
+      </c>
+      <c r="F10">
+        <v>1.937239838509872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.2290780474790936</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.006795479750174953</v>
+      </c>
+      <c r="F11">
+        <v>1.937239838509872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.2337267105073109</v>
+      </c>
+      <c r="D12">
+        <v>-0</v>
+      </c>
+      <c r="E12">
+        <v>-0.007123586325049527</v>
+      </c>
+      <c r="F12">
+        <v>1.143214037422258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.2337267105073109</v>
+      </c>
+      <c r="D13">
+        <v>-0</v>
+      </c>
+      <c r="E13">
+        <v>-0.007123586325049527</v>
+      </c>
+      <c r="F13">
+        <v>1.143214037422258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.2362476710907719</v>
+      </c>
+      <c r="D14">
+        <v>-0</v>
+      </c>
+      <c r="E14">
+        <v>-0.007397108222761728</v>
+      </c>
+      <c r="F14">
+        <v>0.8076800640829536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.2362476710907719</v>
+      </c>
+      <c r="D15">
+        <v>-0</v>
+      </c>
+      <c r="E15">
+        <v>-0.007397108222761728</v>
+      </c>
+      <c r="F15">
+        <v>0.8076800640829536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.2349699905376256</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-0.007250444248811617</v>
+      </c>
+      <c r="F16">
+        <v>0.9697437552978297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.2349699905376256</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-0.007250444248811617</v>
+      </c>
+      <c r="F17">
+        <v>0.9697437552978297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.2402971680301164</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-0.007966186214302933</v>
+      </c>
+      <c r="F18">
+        <v>0.3976993642886633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.2402971680301164</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-0.007966186214302933</v>
+      </c>
+      <c r="F19">
+        <v>0.3976993642886633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.2462401257494575</v>
+      </c>
+      <c r="D20">
+        <v>-0</v>
+      </c>
+      <c r="E20">
+        <v>-0.009067854297015699</v>
+      </c>
+      <c r="F20">
+        <v>0.06105546218529274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.2462401257494575</v>
+      </c>
+      <c r="D21">
+        <v>-0</v>
+      </c>
+      <c r="E21">
+        <v>-0.009067854297015699</v>
+      </c>
+      <c r="F21">
+        <v>0.06105546218529274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.244692976462868</v>
+      </c>
+      <c r="D22">
+        <v>-0</v>
+      </c>
+      <c r="E22">
+        <v>-0.008752127925705639</v>
+      </c>
+      <c r="F22">
+        <v>0.1199285639855131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.244692976462868</v>
+      </c>
+      <c r="D23">
+        <v>-0</v>
+      </c>
+      <c r="E23">
+        <v>-0.008752127925705639</v>
+      </c>
+      <c r="F23">
+        <v>0.1199285639855131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.2301934685884792</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-0.006852385677482919</v>
+      </c>
+      <c r="F24">
+        <v>1.725016295855719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.2301934685884792</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>-0.006852385677482919</v>
+      </c>
+      <c r="F25">
+        <v>1.725016295855719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2313394176703684</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>-0.006925464910299019</v>
+      </c>
+      <c r="F26">
+        <v>1.521519864156037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.2313394176703684</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-0.006925464910299019</v>
+      </c>
+      <c r="F27">
+        <v>1.521519864156037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2325168443239113</v>
+      </c>
+      <c r="D28">
+        <v>-0</v>
+      </c>
+      <c r="E28">
+        <v>-0.007015568847269354</v>
+      </c>
+      <c r="F28">
+        <v>1.327368405969197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.2325168443239113</v>
+      </c>
+      <c r="D29">
+        <v>-0</v>
+      </c>
+      <c r="E29">
+        <v>-0.007015568847269354</v>
+      </c>
+      <c r="F29">
+        <v>1.327368405969197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.2375607512016066</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>-0.007564583180667663</v>
+      </c>
+      <c r="F30">
+        <v>0.6577816030092494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.2375607512016066</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>-0.007564583180667663</v>
+      </c>
+      <c r="F31">
+        <v>0.6577816030092494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.2389102422638269</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>-0.007753914016366429</v>
+      </c>
+      <c r="F32">
+        <v>0.5208437731165818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.2389102422638269</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>-0.007753914016366429</v>
+      </c>
+      <c r="F33">
+        <v>0.5208437731165818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.2279922171017585</v>
+      </c>
+      <c r="D34">
+        <v>-0</v>
+      </c>
+      <c r="E34">
+        <v>-0.006753932537197616</v>
+      </c>
+      <c r="F34">
+        <v>2.157606256141669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.2279922171017585</v>
+      </c>
+      <c r="D35">
+        <v>-0</v>
+      </c>
+      <c r="E35">
+        <v>-0.006753932537197616</v>
+      </c>
+      <c r="F35">
+        <v>2.157606256141669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.2259056413762956</v>
+      </c>
+      <c r="D36">
+        <v>-0</v>
+      </c>
+      <c r="E36">
+        <v>-0.006713836143834771</v>
+      </c>
+      <c r="F36">
+        <v>2.620595142778893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.2259056413762956</v>
+      </c>
+      <c r="D37">
+        <v>-0</v>
+      </c>
+      <c r="E37">
+        <v>-0.006713836143834771</v>
+      </c>
+      <c r="F37">
+        <v>2.620595142778893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.2269350525749912</v>
+      </c>
+      <c r="D38">
+        <v>-0</v>
+      </c>
+      <c r="E38">
+        <v>-0.00672696562433996</v>
+      </c>
+      <c r="F38">
+        <v>2.385564312255656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.2269350525749912</v>
+      </c>
+      <c r="D39">
+        <v>-0</v>
+      </c>
+      <c r="E39">
+        <v>-0.00672696562433996</v>
+      </c>
+      <c r="F39">
+        <v>2.385564312255656</v>
       </c>
     </row>
   </sheetData>
